--- a/task1/ExeclSheet/User-Stories-Manager.xlsx
+++ b/task1/ExeclSheet/User-Stories-Manager.xlsx
@@ -102,39 +102,20 @@
     <t xml:space="preserve">AS A Manager I WANT TO ask requester to reduce the item count SO THAT it will be in budget range </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AS A Manager I WANT TO response to the requester to use the unused products SO THAT  I can save the budge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">t </t>
-    </r>
-  </si>
-  <si>
     <t>AS A Manager I WANT TO get notifications from the requester after ther requset is satisfied</t>
   </si>
   <si>
     <t>request to procurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS A Manager I WANT TO response to the requester to use the unused products SO THAT  I can save the budget </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,13 +126,6 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,22 +156,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,7 +586,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="50.25" customHeight="1"/>
@@ -622,13 +596,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50.25" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -639,7 +613,7 @@
       <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -648,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -657,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -666,8 +640,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="50.25" customHeight="1">
@@ -675,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -684,7 +658,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -693,7 +667,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -702,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -711,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -720,8 +694,8 @@
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>29</v>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="50.25" customHeight="1">
@@ -729,22 +703,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="50.25" customHeight="1">
       <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="50.25" customHeight="1">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -752,8 +726,8 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -761,25 +735,25 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="50.25" customHeight="1">
-      <c r="B17" s="2"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="2:2" ht="50.25" customHeight="1">
-      <c r="B18" s="2"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="21" spans="2:2" ht="50.25" customHeight="1">
-      <c r="B21" s="3"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="2:2" ht="50.25" customHeight="1">
-      <c r="B22" s="3"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="2:2" ht="50.25" customHeight="1">
-      <c r="B23" s="3"/>
+      <c r="B23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
